--- a/curso-completo/excel_365_do_zero_ao_avancado/5.basico_formatacao_de_tabela_e_analise_de_dados/104.ferramentas_classificar/80+-+Ferramenta+Classificar.xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/5.basico_formatacao_de_tabela_e_analise_de_dados/104.ferramentas_classificar/80+-+Ferramenta+Classificar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aula\Desktop\Curso de Excel\Capítulo 04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\5.basico_formatacao_de_tabela_e_analise_de_dados\104.ferramentas_classificar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5E60E2-6BD4-42F8-94C0-6805CC681A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CB43DD-0812-456D-87C6-8D5605C6DD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercício 01" sheetId="24" r:id="rId1"/>
@@ -318,7 +318,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -446,9 +446,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -492,13 +489,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,9 +528,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -568,7 +568,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -674,7 +674,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -816,7 +816,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -826,48 +826,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899747DD-F910-4726-A4E6-BD4C9A6B746C}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="13"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I4" t="s">
@@ -876,19 +876,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="17">
-        <v>23351</v>
-      </c>
-      <c r="E5" s="11">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="F5" s="14">
-        <v>26771</v>
+        <v>41</v>
+      </c>
+      <c r="D5" s="16">
+        <v>3497</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>44014</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -896,16 +896,16 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="17">
-        <v>20252</v>
-      </c>
-      <c r="E6" s="11">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="F6" s="14">
-        <v>29921</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="16">
+        <v>14440</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <v>22759</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -913,50 +913,50 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="17">
-        <v>14440</v>
-      </c>
-      <c r="E7" s="11">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="F7" s="14">
-        <v>22759</v>
+        <v>39</v>
+      </c>
+      <c r="D7" s="16">
+        <v>3517</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>35251</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="17">
-        <v>13964</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="F8" s="14">
-        <v>30123</v>
+        <v>19</v>
+      </c>
+      <c r="D8" s="16">
+        <v>9750</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F8" s="13">
+        <v>27789</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="17">
-        <v>11444</v>
-      </c>
-      <c r="E9" s="11">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="F9" s="14">
-        <v>31606</v>
+        <v>20</v>
+      </c>
+      <c r="D9" s="16">
+        <v>9512</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F9" s="13">
+        <v>29121</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -964,84 +964,84 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="17">
-        <v>9750</v>
-      </c>
-      <c r="E10" s="11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="F10" s="14">
-        <v>27789</v>
+        <v>14</v>
+      </c>
+      <c r="D10" s="16">
+        <v>20252</v>
+      </c>
+      <c r="E10" s="10">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F10" s="13">
+        <v>29921</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="17">
-        <v>9512</v>
-      </c>
-      <c r="E11" s="11">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F11" s="14">
-        <v>29121</v>
+        <v>45</v>
+      </c>
+      <c r="D11" s="16">
+        <v>3036</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F11" s="13">
+        <v>56110</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="17">
-        <v>7866</v>
-      </c>
-      <c r="E12" s="11">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="F12" s="14">
-        <v>31804</v>
+        <v>25</v>
+      </c>
+      <c r="D12" s="16">
+        <v>6211</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F12" s="13">
+        <v>25769</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="17">
-        <v>7049</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F13" s="14">
-        <v>32256</v>
+        <v>28</v>
+      </c>
+      <c r="D13" s="16">
+        <v>4970</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F13" s="13">
+        <v>22174</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="17">
-        <v>6211</v>
-      </c>
-      <c r="E14" s="11">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="F14" s="14">
-        <v>25769</v>
+        <v>34</v>
+      </c>
+      <c r="D14" s="16">
+        <v>3878</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F14" s="13">
+        <v>35285</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1049,50 +1049,50 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="17">
-        <v>5433</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="F15" s="14">
-        <v>32656</v>
+        <v>18</v>
+      </c>
+      <c r="D15" s="16">
+        <v>11444</v>
+      </c>
+      <c r="E15" s="10">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F15" s="13">
+        <v>31606</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="17">
-        <v>5368</v>
-      </c>
-      <c r="E16" s="11">
-        <v>1.9E-2</v>
-      </c>
-      <c r="F16" s="14">
-        <v>33658</v>
+        <v>26</v>
+      </c>
+      <c r="D16" s="16">
+        <v>5433</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="F16" s="13">
+        <v>32656</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="17">
-        <v>4970</v>
-      </c>
-      <c r="E17" s="11">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="F17" s="14">
-        <v>22174</v>
+        <v>29</v>
+      </c>
+      <c r="D17" s="16">
+        <v>4392</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F17" s="13">
+        <v>38113</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -1100,16 +1100,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="17">
-        <v>4392</v>
-      </c>
-      <c r="E18" s="11">
-        <v>1.6E-2</v>
-      </c>
-      <c r="F18" s="14">
-        <v>38113</v>
+        <v>44</v>
+      </c>
+      <c r="D18" s="16">
+        <v>3073</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F18" s="13">
+        <v>60055</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
@@ -1119,13 +1119,13 @@
       <c r="C19" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <v>4155</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <v>29560</v>
       </c>
     </row>
@@ -1134,33 +1134,33 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="17">
-        <v>4076</v>
-      </c>
-      <c r="E20" s="11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F20" s="14">
-        <v>45649</v>
+        <v>43</v>
+      </c>
+      <c r="D20" s="16">
+        <v>3150</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F20" s="13">
+        <v>29169</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="17">
-        <v>3973</v>
-      </c>
-      <c r="E21" s="11">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F21" s="14">
-        <v>81296</v>
+        <v>31</v>
+      </c>
+      <c r="D21" s="16">
+        <v>4076</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F21" s="13">
+        <v>45649</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
@@ -1168,16 +1168,16 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="17">
-        <v>3878</v>
-      </c>
-      <c r="E22" s="11">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F22" s="14">
-        <v>35285</v>
+        <v>37</v>
+      </c>
+      <c r="D22" s="16">
+        <v>3644</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F22" s="13">
+        <v>53110</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
@@ -1185,84 +1185,84 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="17">
-        <v>3735</v>
-      </c>
-      <c r="E23" s="11">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F23" s="14">
-        <v>60648</v>
+        <v>48</v>
+      </c>
+      <c r="D23" s="16">
+        <v>2500</v>
+      </c>
+      <c r="E23" s="10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F23" s="13">
+        <v>43448</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="17">
-        <v>3644</v>
-      </c>
-      <c r="E24" s="11">
+        <v>36</v>
+      </c>
+      <c r="D24" s="16">
+        <v>3735</v>
+      </c>
+      <c r="E24" s="10">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F24" s="14">
-        <v>53110</v>
+      <c r="F24" s="13">
+        <v>60648</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="17">
-        <v>3579</v>
-      </c>
-      <c r="E25" s="11">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F25" s="14">
-        <v>115920</v>
+        <v>46</v>
+      </c>
+      <c r="D25" s="16">
+        <v>2937</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F25" s="13">
+        <v>53593</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="17">
-        <v>3517</v>
-      </c>
-      <c r="E26" s="11">
+        <v>42</v>
+      </c>
+      <c r="D26" s="16">
+        <v>3474</v>
+      </c>
+      <c r="E26" s="10">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F26" s="14">
-        <v>35251</v>
+      <c r="F26" s="13">
+        <v>41825</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="17">
-        <v>3497</v>
-      </c>
-      <c r="E27" s="11">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F27" s="14">
-        <v>44014</v>
+        <v>47</v>
+      </c>
+      <c r="D27" s="16">
+        <v>2859</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F27" s="13">
+        <v>32222</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
@@ -1270,121 +1270,125 @@
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="17">
-        <v>3474</v>
-      </c>
-      <c r="E28" s="11">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F28" s="14">
-        <v>41825</v>
+        <v>22</v>
+      </c>
+      <c r="D28" s="16">
+        <v>7866</v>
+      </c>
+      <c r="E28" s="10">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F28" s="13">
+        <v>31804</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="17">
-        <v>3150</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="F29" s="14">
-        <v>29169</v>
+        <v>33</v>
+      </c>
+      <c r="D29" s="16">
+        <v>3973</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F29" s="13">
+        <v>81296</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="17">
-        <v>3073</v>
-      </c>
-      <c r="E30" s="11">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F30" s="14">
-        <v>60055</v>
+        <v>38</v>
+      </c>
+      <c r="D30" s="16">
+        <v>3579</v>
+      </c>
+      <c r="E30" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F30" s="13">
+        <v>115920</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="17">
-        <v>3036</v>
-      </c>
-      <c r="E31" s="11">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F31" s="14">
-        <v>56110</v>
+        <v>16</v>
+      </c>
+      <c r="D31" s="16">
+        <v>13964</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="F31" s="13">
+        <v>30123</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="17">
-        <v>2937</v>
-      </c>
-      <c r="E32" s="11">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F32" s="14">
-        <v>53593</v>
+        <v>12</v>
+      </c>
+      <c r="D32" s="16">
+        <v>23351</v>
+      </c>
+      <c r="E32" s="10">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F32" s="13">
+        <v>26771</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="17">
-        <v>2859</v>
-      </c>
-      <c r="E33" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="F33" s="14">
-        <v>32222</v>
+        <v>27</v>
+      </c>
+      <c r="D33" s="16">
+        <v>5368</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F33" s="13">
+        <v>33658</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="17">
-        <v>2500</v>
-      </c>
-      <c r="E34" s="11">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F34" s="14">
-        <v>43448</v>
+        <v>23</v>
+      </c>
+      <c r="D34" s="16">
+        <v>7049</v>
+      </c>
+      <c r="E34" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F34" s="13">
+        <v>32256</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:F34">
+    <sortCondition ref="B5:B34"/>
+    <sortCondition ref="C5:C34"/>
+  </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1396,242 +1400,242 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="13"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E4"/>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="22">
-        <v>44751</v>
+      <c r="B5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="21">
+        <v>44577</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="22">
-        <v>44886</v>
+      <c r="B6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="21">
+        <v>44745</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>44734</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="22">
-        <v>44661</v>
+      <c r="B8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="21">
+        <v>44664</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="22">
-        <v>44896</v>
+      <c r="B9" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="21">
+        <v>44751</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="22">
-        <v>44856</v>
+      <c r="B10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="21">
+        <v>44910</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="22">
-        <v>44798</v>
+      <c r="B11" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="21">
+        <v>44782</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="22">
-        <v>44577</v>
+      <c r="B12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="21">
+        <v>44798</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="22">
-        <v>44782</v>
+      <c r="B13" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="21">
+        <v>44800</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="22">
-        <v>44910</v>
+      <c r="B14" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="21">
+        <v>44661</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="22">
-        <v>44674</v>
+      <c r="C15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="21">
+        <v>44886</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="22">
-        <v>44673</v>
+      <c r="C16" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="21">
+        <v>44856</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="22">
-        <v>44745</v>
+      <c r="B17" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="21">
+        <v>44674</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="22">
-        <v>44800</v>
+      <c r="C18" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="21">
+        <v>44673</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="22">
-        <v>44664</v>
+      <c r="B19" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="21">
+        <v>44896</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -1704,6 +1708,10 @@
     <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:D19">
+    <sortCondition ref="B5:B19"/>
+    <sortCondition ref="C5:C19"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="F4:H4"/>
   </mergeCells>
@@ -1716,121 +1724,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E3C134-BBB5-4C4A-AA3C-C10A1E93C857}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="13"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="26">
-        <v>0.42416666666666702</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>60</v>
+      <c r="B5" s="23">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="25">
-        <v>0.43425925925926001</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>62</v>
+      <c r="B6" s="24">
+        <v>0.34342592592592597</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="26">
-        <v>0.403981481481482</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>68</v>
+      <c r="B7" s="23">
+        <v>0.35351851851851901</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="25">
-        <v>0.41407407407407398</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>63</v>
+      <c r="B8" s="24">
+        <v>0.363611111111111</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="25">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>61</v>
+      <c r="B9" s="23">
+        <v>0.37370370370370398</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="26">
-        <v>0.34342592592592597</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>64</v>
+      <c r="B10" s="24">
+        <v>0.38379629629629702</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="25">
+      <c r="B11" s="23">
         <v>0.39388888888888901</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>72</v>
       </c>
       <c r="D11"/>
@@ -1838,50 +1846,50 @@
       <c r="F11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="26">
-        <v>0.38379629629629702</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>69</v>
+      <c r="B12" s="24">
+        <v>0.403981481481482</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="25">
-        <v>0.35351851851851901</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>73</v>
+      <c r="B13" s="23">
+        <v>0.41407407407407398</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="26">
-        <v>0.363611111111111</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>61</v>
+      <c r="B14" s="24">
+        <v>0.42416666666666702</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="25">
-        <v>0.37370370370370398</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>65</v>
+      <c r="B15" s="23">
+        <v>0.43425925925926001</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="26">
+      <c r="B16" s="24">
         <v>0.444351851851852</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>66</v>
       </c>
       <c r="D16"/>
@@ -1889,10 +1897,10 @@
       <c r="F16"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="25">
+      <c r="B17" s="23">
         <v>0.45444444444444498</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>70</v>
       </c>
       <c r="D17"/>
@@ -1900,10 +1908,10 @@
       <c r="F17"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="26">
+      <c r="B18" s="24">
         <v>0.46453703703703703</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>67</v>
       </c>
       <c r="D18"/>
@@ -1911,10 +1919,10 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="25">
+      <c r="B19" s="23">
         <v>0.47462962962963001</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>71</v>
       </c>
       <c r="D19"/>
@@ -1989,6 +1997,10 @@
     <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:C19">
+    <sortCondition ref="B5:B19"/>
+    <sortCondition ref="C5:C19"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="F4:H4"/>
   </mergeCells>
@@ -2013,12 +2025,12 @@
     <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>5</v>
